--- a/src/test/resources/xls/solve/HungarianAlgorithm.xlsx
+++ b/src/test/resources/xls/solve/HungarianAlgorithm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\IdeaProjects\CombinatorialOptimization\src\test\resources\xls\solve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C1C6DE-5236-4D33-B2B4-0550DE7A08AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EA4B75-085D-401C-B2EB-F519EA17B1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GetRowMinValue" sheetId="1" r:id="rId1"/>
@@ -241,10 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>14,18,27,-1,-1;17,18,32,42,3;34,1,24,-1,-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,10 +263,6 @@
     <t>{1=A, 2=E, 3=B, 4=A, 5=E, 6=A, 7=D, 8=C, 9=D, 10=C, 11=B}</t>
   </si>
   <si>
-    <t>14,18,27,-1,-1;17,18,32,42,3;34,1,24,-1,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{1=C, 2=A, 3=A, 4=B, 5=C}</t>
   </si>
   <si>
@@ -283,6 +275,14 @@
   </si>
   <si>
     <t>{1=C, 2=D, 3=A, 4=A, 5=B}</t>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,18,27,22,-1;17,18,32,42,3;34,1,24,-1,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1205,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBB64BC-D19C-4A5B-9990-C8807E0E2AE3}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1250,7 +1250,7 @@
         <v>29</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1276,7 +1276,7 @@
         <v>32</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>35</v>
@@ -1285,7 +1285,7 @@
         <v>35</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1311,7 +1311,7 @@
         <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>40</v>
@@ -1320,7 +1320,7 @@
         <v>41</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1346,7 +1346,7 @@
         <v>32</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>35</v>
@@ -1404,13 +1404,13 @@
         <v>42</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>35</v>
@@ -1419,7 +1419,7 @@
         <v>41</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1427,7 +1427,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -1445,7 +1445,7 @@
         <v>32</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>40</v>
@@ -1454,7 +1454,7 @@
         <v>41</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/solve/HungarianAlgorithm.xlsx
+++ b/src/test/resources/xls/solve/HungarianAlgorithm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\IdeaProjects\CombinatorialOptimization\src\test\resources\xls\solve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EA4B75-085D-401C-B2EB-F519EA17B1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE4C921-F156-43FA-B369-F2E94986037E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="64">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,9 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{1=A, 2=E, 3=B, 4=A, 5=E, 6=A, 7=D, 8=C, 9=D, 10=C, 11=B}</t>
-  </si>
-  <si>
     <t>{1=C, 2=A, 3=A, 4=B, 5=C}</t>
   </si>
   <si>
@@ -270,19 +267,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>26,38,41,52,27;25,33,44,59,21;20,30,47,56,25;22,31,45,53,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1=C, 2=D, 3=A, 4=A, 5=B}</t>
-  </si>
-  <si>
     <t>1,1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>14,18,27,22,-1;17,18,32,42,3;34,1,24,-1,9</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,29,31,42,37;39,38,26,20,33;34,27,28,40,32;24,42,36,23,45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等容量用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1=D, 2=A, 3=B, 4=B, 5=C}</t>
+  </si>
+  <si>
+    <t>{1=A, 2=E, 3=E, 4=D, 5=E, 6=A, 7=B, 8=C, 9=D, 10=C, 11=B}</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1210,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1320,7 +1324,7 @@
         <v>41</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1392,7 +1396,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -1404,13 +1408,13 @@
         <v>42</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>35</v>
@@ -1419,42 +1423,42 @@
         <v>41</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>41</v>
+      <c r="H7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
